--- a/Assign_1/Problem_1/general_data.xlsx
+++ b/Assign_1/Problem_1/general_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\PycharmProjects\Airline-Planning-Optimisation\Assignment 1\Problem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frans/Desktop/AE/AE4423-20_AirlinePlanningOptimisation/Assignment/Airline-Planning-Optimisation/Assign_1/Problem_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53AA6917-A30A-49FF-AD95-D0A046F89206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F538D41-B2F4-F841-B41E-4024478AEFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2141D6E-119D-43C3-8710-E980D2A328B8}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D2141D6E-119D-43C3-8710-E980D2A328B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,12 +508,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I24"/>
+      <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -535,7 +535,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>39720.44342678359</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +598,7 @@
         <v>38476.658636157503</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +619,7 @@
         <v>48223.155494182516</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -640,7 +640,7 @@
         <v>44469.909060724385</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -661,7 +661,7 @@
         <v>28156.815836235186</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -682,7 +682,7 @@
         <v>28156.815836235186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -703,7 +703,7 @@
         <v>44469.909060724385</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -724,7 +724,7 @@
         <v>31952.975920684112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -745,7 +745,7 @@
         <v>69330.690154491196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -766,7 +766,7 @@
         <v>53442.008280802183</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -787,7 +787,7 @@
         <v>21136.297210200468</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -808,7 +808,7 @@
         <v>44469.909060724385</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -829,7 +829,7 @@
         <v>45703.32786507401</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -850,7 +850,7 @@
         <v>13811.664243680832</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -871,7 +871,7 @@
         <v>39720.44342678359</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -892,7 +892,7 @@
         <v>10813.716600198628</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -913,7 +913,7 @@
         <v>18613.423873381744</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -934,7 +934,7 @@
         <v>70056.873391621339</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -955,7 +955,7 @@
         <v>31952.975920684101</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -976,7 +976,7 @@
         <v>21136.297210200468</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
